--- a/docs/development plan/Development plan.xlsx
+++ b/docs/development plan/Development plan.xlsx
@@ -24,30 +24,6 @@
     <author>Rev</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rev:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Numbers refer to documented items in "E-hub optimization problem.doc"</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E5" authorId="0">
       <text>
         <r>
@@ -101,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="203">
   <si>
     <t>Priority</t>
   </si>
@@ -399,9 +375,6 @@
     <t>May require if statement type selection of constraints/parameters</t>
   </si>
   <si>
-    <t>Define test cases</t>
-  </si>
-  <si>
     <t>Fixed O&amp;M not currently being used (applies to technologies, storage, network)</t>
   </si>
   <si>
@@ -666,9 +639,6 @@
   </si>
   <si>
     <t>Outstanding</t>
-  </si>
-  <si>
-    <t>Building upon existing UESL Python e-hub tool (Boran's work)</t>
   </si>
   <si>
     <t>Annual CF implemented; hourly CF option underway</t>
@@ -781,6 +751,15 @@
   </si>
   <si>
     <t>Complete documentation, upload to GitHub</t>
+  </si>
+  <si>
+    <t>Develop demonstration cases, test code</t>
+  </si>
+  <si>
+    <t>Stress test further</t>
+  </si>
+  <si>
+    <t>Building upon existing UESL Python e-hub tool (Boran's work, v1.0)</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1226,12 +1205,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,7 +1256,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6">
         <v>43144</v>
@@ -1303,7 +1282,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="6">
         <v>43144</v>
@@ -1329,7 +1308,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="6">
         <v>43144</v>
@@ -1352,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="6">
         <v>43144</v>
@@ -1375,7 +1354,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="6">
         <v>43144</v>
@@ -1398,7 +1377,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="6">
         <v>43144</v>
@@ -1421,7 +1400,7 @@
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G12" s="6">
         <v>43144</v>
@@ -1444,7 +1423,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>65</v>
@@ -1470,7 +1449,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="6">
         <v>43144</v>
@@ -1519,10 +1498,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1545,7 +1524,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="6">
         <v>43144</v>
@@ -1568,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="6">
         <v>43144</v>
@@ -1594,7 +1573,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="6">
         <v>43144</v>
@@ -1620,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="6">
         <v>43144</v>
@@ -1669,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G22" s="6">
         <v>43144</v>
@@ -1692,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="6">
         <v>43073</v>
@@ -1718,10 +1697,10 @@
         <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G24" s="6">
         <v>43073</v>
@@ -1747,7 +1726,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G25" s="6">
         <v>43144</v>
@@ -1764,13 +1743,13 @@
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G26" s="6">
         <v>43144</v>
@@ -1793,7 +1772,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G27" s="6">
         <v>43144</v>
@@ -1816,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="6">
         <v>43144</v>
@@ -1842,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="6">
         <v>43144</v>
@@ -1868,10 +1847,10 @@
         <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G30" s="6">
         <v>43178</v>
@@ -1897,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6">
         <v>43144</v>
@@ -1920,10 +1899,10 @@
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G32" s="6">
         <v>43144</v>
@@ -1972,10 +1951,10 @@
         <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="6">
         <v>43073</v>
@@ -2030,10 +2009,10 @@
         <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="6">
         <v>43144</v>
@@ -2056,10 +2035,10 @@
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="6">
         <v>43073</v>
@@ -2085,13 +2064,13 @@
         <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G38" s="6">
         <v>43144</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I38" s="3">
         <v>33</v>
@@ -2111,7 +2090,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="6">
         <v>43144</v>
@@ -2134,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
@@ -2217,7 +2196,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G43" s="6">
         <v>43144</v>
@@ -2240,7 +2219,7 @@
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" s="6">
         <v>43144</v>
@@ -2257,13 +2236,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G45" s="6">
         <v>43154</v>
@@ -2289,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46" s="6">
         <v>43073</v>
@@ -2315,7 +2294,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="6">
         <v>43073</v>
@@ -2335,19 +2314,19 @@
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" s="6">
         <v>43074</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" s="3">
         <v>43</v>
@@ -2367,10 +2346,10 @@
         <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="6">
         <v>43073</v>
@@ -2396,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50" s="6">
         <v>43144</v>
@@ -2419,7 +2398,7 @@
         <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G51" s="6">
         <v>43154</v>
@@ -2445,10 +2424,10 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G52" s="6">
         <v>43076</v>
@@ -2471,7 +2450,7 @@
         <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="6">
         <v>43144</v>
@@ -2497,7 +2476,7 @@
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G54" s="6">
         <v>43144</v>
@@ -2520,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="6">
         <v>43144</v>
@@ -2598,7 +2577,7 @@
         <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G58" s="6">
         <v>43144</v>
@@ -2624,10 +2603,10 @@
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="6">
         <v>43178</v>
@@ -2647,17 +2626,20 @@
         <v>62</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G60" s="6">
         <v>43174</v>
       </c>
+      <c r="H60" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="I60" s="3">
         <v>55</v>
       </c>
@@ -2670,22 +2652,22 @@
         <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="6">
+        <v>43144</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="6">
-        <v>43144</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I61" s="3">
         <v>56</v>
@@ -2699,16 +2681,16 @@
         <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G62" s="6">
         <v>43083</v>
@@ -2725,13 +2707,13 @@
         <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G63" s="6">
         <v>43074</v>
@@ -2751,13 +2733,13 @@
         <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G64" s="6">
         <v>43144</v>
@@ -2774,13 +2756,13 @@
         <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G65" s="6">
         <v>43144</v>
@@ -2797,13 +2779,13 @@
         <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G66" s="6">
         <v>43144</v>
@@ -2820,19 +2802,19 @@
         <v>69</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="6">
+        <v>43144</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" s="6">
-        <v>43144</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="I67" s="3">
         <v>62</v>
@@ -2846,16 +2828,16 @@
         <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G68" s="6">
         <v>43144</v>
@@ -2872,7 +2854,7 @@
         <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>38</v>
@@ -2892,16 +2874,16 @@
         <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="G70" s="6">
         <v>43144</v>
@@ -2918,13 +2900,13 @@
         <v>73</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="G71" s="6">
         <v>43144</v>
@@ -2941,13 +2923,13 @@
         <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>68</v>
@@ -2967,13 +2949,13 @@
         <v>75</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G73" s="6">
         <v>43144</v>
@@ -2990,16 +2972,16 @@
         <v>76</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="G74" s="6">
         <v>43144</v>
@@ -3016,16 +2998,16 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="G75" s="6">
         <v>43144</v>
@@ -3042,16 +3024,16 @@
         <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G76" s="6">
         <v>43144</v>
@@ -3068,16 +3050,16 @@
         <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G77" s="6">
         <v>43144</v>
@@ -3094,16 +3076,16 @@
         <v>80</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F78" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G78" s="6">
         <v>43144</v>
@@ -3120,16 +3102,16 @@
         <v>81</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G79" s="6">
         <v>43144</v>
@@ -3146,16 +3128,16 @@
         <v>82</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" s="6">
         <v>43144</v>
@@ -3172,16 +3154,16 @@
         <v>83</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G81" s="6">
         <v>43144</v>
@@ -3198,13 +3180,13 @@
         <v>84</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I82" s="3">
         <v>77</v>
@@ -3218,13 +3200,13 @@
         <v>85</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I83" s="3">
         <v>78</v>
@@ -3238,10 +3220,10 @@
         <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I84" s="3">
         <v>79</v>
@@ -3255,10 +3237,10 @@
         <v>87</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I85" s="3">
         <v>80</v>
@@ -3272,10 +3254,10 @@
         <v>88</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I86" s="3">
         <v>81</v>
@@ -3289,7 +3271,7 @@
         <v>89</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>38</v>
@@ -3309,7 +3291,7 @@
         <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>38</v>
@@ -3320,6 +3302,9 @@
       <c r="I88" s="3">
         <v>83</v>
       </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:I88">
